--- a/resources/Audits.xlsx
+++ b/resources/Audits.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="587">
   <si>
     <t>Name</t>
   </si>
@@ -544,9 +544,6 @@
   </si>
   <si>
     <t>O2 Therapy</t>
-  </si>
-  <si>
-    <t>//md-checkbox[@class="margin-0 md-warn ng-pristine ng-valid md-cs-content-theme-theme flex-100 md-checked ng-touched" and @aria-checked="true"]</t>
   </si>
   <si>
     <t>O2 Therapy - At:</t>
@@ -598,41 +595,1208 @@
     <t>//md-slider[@ng-change="vm.lessThan(vm.charts.notifyphysician.o2Sat.lessThan, vm.threshold.o2Sat.lessThan, 'O2 Sat')" and @aria-valuenow="92"]</t>
   </si>
   <si>
-    <t>//md-slider[@ng-change="vm.lessThan(vm.charts.notifyphysician.fastingbs.lessThan, vm.threshold.fastingbs.lessThan, 'Fasting blood sugar')"  and @aria-valuenow="64"]</t>
-  </si>
-  <si>
-    <t>//md-slider[@ng-change="vm.moreThan(vm.charts.notifyphysician.fastingbs.greaterThan, vm.threshold.fastingbs.greaterThan, 'Fasting blood sugar')" and @aria-valuenow="249"]</t>
-  </si>
-  <si>
-    <t>//md-slider[@ng-change="vm.lessThan(vm.charts.notifyphysician.randombs.lessThan, vm.threshold.randombs.lessThan, 'Random blood sugar')" and aria-valuenow="65"]</t>
-  </si>
-  <si>
     <t>//md-slider[@ng-change="vm.moreThan(vm.charts.notifyphysician.randombs.greaterThan, vm.threshold.randombs.greaterThan, 'Random blood sugar')" and @aria-valuenow="250"]</t>
   </si>
   <si>
     <t>//md-slider[@ng-change="vm.lessThan(vm.charts.notifyphysician.weight.lessThan, vm.threshold.weight.lessThan, 'Weight')" and @aria-valuenow="45"]</t>
   </si>
   <si>
-    <t>//md-slider[@ng-change="vm.moreThan(vm.charts.notifyphysician.weight.greaterThan, vm.threshold.weight.greaterThan, 'Weight')" and @and @aria-valuenow="125"]</t>
-  </si>
-  <si>
-    <t>(//md-slider[@ng-model="vm.charts.vital[sign.name].pulse" and @aria-valuenow="90"]</t>
-  </si>
-  <si>
-    <t>(//md-slider[@ng-model="vm.charts.vital[sign.name].respirations" and @aria-valuenow="25"]</t>
-  </si>
-  <si>
     <t>//md-slider[@ng-model="vm.charts.vital[sign.name].o2at.at" and @aria-valuenow="5"]</t>
   </si>
   <si>
     <t>O2 Sat - Value</t>
+  </si>
+  <si>
+    <t>validateValue</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>witnessed</t>
+  </si>
+  <si>
+    <t>relation patient</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>Failed to match</t>
+  </si>
+  <si>
+    <t>San Bruno</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-change="vm.lessThan(vm.charts.notifyphysician.fastingbs.lessThan, vm.threshold.fastingbs.lessThan, 'Fasting blood sugar')"  and @aria-valuenow="65"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-change="vm.moreThan(vm.charts.notifyphysician.fastingbs.greaterThan, vm.threshold.fastingbs.greaterThan, 'Fasting blood sugar')" and @aria-valuenow="250"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-change="vm.lessThan(vm.charts.notifyphysician.randombs.lessThan, vm.threshold.randombs.lessThan, 'Random blood sugar')" and @aria-valuenow="65"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-change="vm.moreThan(vm.charts.notifyphysician.weight.greaterThan, vm.threshold.weight.greaterThan, 'Weight')" and @aria-valuenow="125"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.vital[sign.name].pulse" and @aria-valuenow="90"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-model="vm.charts.vital[sign.name].respirations" and @aria-valuenow="25"]</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@ng-model="vm.charts.vital[sign.name].o2at.value" and @aria-checked="true"])[1]</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@ng-model="vm.charts.vital[sign.name].o2sat.value" and @aria-checked="true"])[1]</t>
+  </si>
+  <si>
+    <t>Blood Pressure - Left</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="margin-right-0 md-primary md-cs-content-theme-theme flex-50 md-checked" and @aria-checked="true"])[1]</t>
+  </si>
+  <si>
+    <t>Blood Pressire - Lying</t>
+  </si>
+  <si>
+    <t>Systolic</t>
+  </si>
+  <si>
+    <t>Diastolic</t>
+  </si>
+  <si>
+    <t>(//md-slider[@ng-change="vm.checkThreshold(vm.charts.vital[sign.name].bloodPressure.diastolicBp, 'diastolicBp', sign.name)" and @aria-valuenow="70"])[1]</t>
+  </si>
+  <si>
+    <t>Standard / Universal Precautions</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.vital.maintain" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Patient Asymtomatic</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.vital.patienAsymptomatic" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD Informed </t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.vital.mdInformed" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Homebound - YES</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="margin-0 md-amber md-cs-content-theme-theme flex-50 md-checked" and @aria-checked="true"])[1]</t>
+  </si>
+  <si>
+    <t>Residual Weakness</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.homebound.residualWeakness" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Unable to safely leave home unassisted</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.homebound.unableLeaveunassisted" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Requires max assistance</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.homebound.maxAssistanceleave" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Confusion, unsafe to go out</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.homebound.confusion" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Severe SOB or  SOB upon</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.homebound.assistanceForall" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.homebound.severeSob" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Need assistance for all</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.homebound.other" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-slider[@ng-change="vm.checkThreshold(vm.charts.vital[sign.name].bloodPressure.systolicBp, 'systolicBp', sign.name)" and @aria-valuenow="90"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details </t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.homebound.detail"]</t>
+  </si>
+  <si>
+    <t>comment homebound</t>
+  </si>
+  <si>
+    <t>M100-1</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1000.nf" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M100-2</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1000.snf" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M100-3</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1000.ipps" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M100-4</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1000.ltch" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M100-5</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1000.irf" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M100-6</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1000.ph" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M100-7</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1000.other" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1005 - Details</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.m1000.detail"]</t>
+  </si>
+  <si>
+    <t>details input</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1018.s01" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1018 - 1</t>
+  </si>
+  <si>
+    <t>M1018 - 2</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1018.s02" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1018- 3</t>
+  </si>
+  <si>
+    <t>M1018 - 4</t>
+  </si>
+  <si>
+    <t>M1018-5</t>
+  </si>
+  <si>
+    <t>M1018 - 6</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1018.s03" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1018.s04" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1018.s05" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1018.s06" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1018 -7</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1018.s07" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.m1018.comment"]</t>
+  </si>
+  <si>
+    <t>Histo - CHF</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.chf" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo - Arrhythmia</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.arrhythmia" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo - CAD</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.cad" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histo - Chest Pain </t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.chestPain" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo - Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.cardiomyopathy" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo - Murmur</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.murmur" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo - HTN</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.htn" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo - MI</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.mi" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo - PVD</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.pvd" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Cancer - Specify Type</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.history1.cancer.specify"]</t>
+  </si>
+  <si>
+    <t>In remission? - Y</t>
+  </si>
+  <si>
+    <t>//md-radio-button[@class="margin-0 md-amber md-cs-content-theme-theme md-checked flex-40" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Osteoarthritis - Check</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.osteoarthritis.value" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Specify Type</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.history1.osteoarthritis.specify"]</t>
+  </si>
+  <si>
+    <t>Fractures</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.fractures" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Falls</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.falls" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.rheumatoidArthritis" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Gait Problems</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.gaitProblems" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Joint Replacement</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.jointReplacement.value" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.history1.jointReplacement.specify"]</t>
+  </si>
+  <si>
+    <t>CVA</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.cva" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Hemiplegia</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.hemiplegia" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Dizziness/Vertigo</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.dizzinessVertigo" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.tia" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>TIA</t>
+  </si>
+  <si>
+    <t>Seizurea</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.seizures" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.ms" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Headaches</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history1.headaches"and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo II - Constipation</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.constipation"and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo II - Fecal Incontinence</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.fecalIncontinence" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo II - Diverticulitis</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.diverticulitisDiverticulosis" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo II - IBS</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.ibs" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histo II - Crohn's Disease </t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.crohnsDisease" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Histo II - Diarrhea</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.diarrhea" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Liver/Gallblader Problem</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.liverGallbladder.value" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.history2.liverGallbladder.specify"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.depression" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.anxiety" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.dementia" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.alzheimers" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Alzheimers</t>
+  </si>
+  <si>
+    <t>Substance Abuse</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.substanceAbuse.value" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Mental Disorder</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.mentalDisorder.value" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.history2.mentalDisorder.specify"]</t>
+  </si>
+  <si>
+    <t>Pressure Ulcer</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.pressureUlcer" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Diabetic Ulcer</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.diabeticUlcer" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.other.value" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Stasis Ulcer</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.stasisUlcer" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Trauma Wound</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.traumaWound" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Renal Failure</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.renalFailure" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.anemia" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Thyroid Problems</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.thyroidProblems" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Chronic Kidney Disease</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.chronicKidneydisease" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Abnormal Coagulation</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.abnormalCoagulation" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Dialysis</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.diabetes" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Blood Clots</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history2.bloodClots" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Diabets</t>
+  </si>
+  <si>
+    <t>Histo III -Emphy</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.emphysema" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Chronic Obs Brochitis</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.chronicObstructivebronchitis" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Chronic Obs Asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.asthma" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.chronicObstructiveasthma" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>COPD</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.copd" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Urinary Retention</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.urinaryRetention" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Urinary Incontinence</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.urinaryIncontinence" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.uti" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Recent/Frequent</t>
+  </si>
+  <si>
+    <t>BPH</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.tuberculosis" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.bph" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Hepatitis</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.hepatitis.value"and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Infectious Diseases</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.infectiousDisease.value" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.tobaccoDependence.value" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Tobacco Dependence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.history3.tobaccoDependence.type"]</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.history3.tobaccoDependence.amount"]</t>
+  </si>
+  <si>
+    <t>Length of time used</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.history3.tobaccoDependence.length"]</t>
+  </si>
+  <si>
+    <t>Past Surgical History</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.history3.surgicalHistory.value"]</t>
+  </si>
+  <si>
+    <t>206 Dame DR</t>
+  </si>
+  <si>
+    <t>M1028 - YES</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="margin-right-0 md-primary md-cs-content-theme-theme flex-gt-sm-33 flex-50 md-checked" and @aria-checked="true"])[1]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.history3.surgicalHistory.specify"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.history3.other.specify"]</t>
+  </si>
+  <si>
+    <t>Diabetes Mellitus</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="margin-right-0 md-primary md-cs-content-theme-theme flex-gt-sm-33 flex-50 md-checked" and @aria-checked="true"])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1030 - 1 </t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1030.s01" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1030 - 2</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1030.s02" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1030 - 3</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1030.s03" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk &amp; Prognosis -1 </t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s01" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Risk &amp; Prognosis -2</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s02" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Risk &amp; Prognosis -3</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s03" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Risk &amp; Prognosis -4</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s04" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Risk &amp; Prognosis -5</t>
+  </si>
+  <si>
+    <t>Risk &amp; Prognosis -6</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s05" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s06" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Risk &amp; Prognosis -7</t>
+  </si>
+  <si>
+    <t>Risk &amp; Prognosis -8</t>
+  </si>
+  <si>
+    <t>Risk &amp; Prognosis -9</t>
+  </si>
+  <si>
+    <t>Risk &amp; Prognosis -10</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s07" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s08" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s09" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1033.s10" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.m1033.comments"]</t>
+  </si>
+  <si>
+    <t>comment test</t>
+  </si>
+  <si>
+    <t>M1034</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-100 md-checked" and @aria-checked="true"])[2]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.m1034.comments"]</t>
+  </si>
+  <si>
+    <t>M1036 - 1</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1036.s01" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1036 - 2</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1036.s02" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1036 - 3</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1036.s03" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1036 - 4</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1036.s04"and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1036 - 5</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1036.s05"and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1036.uk"and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>M1036 - UK</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.m1036.comments"]</t>
+  </si>
+  <si>
+    <t>Immunization - Pneumonia</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-30 md-checked" and @aria-checked="true"])[1]</t>
+  </si>
+  <si>
+    <t>Immunization - Flu</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-30 md-checked" and @aria-checked="true"])[2]</t>
+  </si>
+  <si>
+    <t>Immunization - Tetanus</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-30 md-checked" and @aria-checked="true"])[3]</t>
+  </si>
+  <si>
+    <t>Immunization - TB</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-30 md-checked" and @aria-checked="true"])[4]</t>
+  </si>
+  <si>
+    <t>Immunization - TB Exposure</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-30 md-checked" and @aria-checked="true"])[5]</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-30 md-checked" and @aria-checked="true"])[6]</t>
+  </si>
+  <si>
+    <t>Immunization - Hepatitis B</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.immunizations.comments"]</t>
+  </si>
+  <si>
+    <t>immunizations</t>
+  </si>
+  <si>
+    <t>Last Cholesterol Level</t>
+  </si>
+  <si>
+    <t>Last Mammogram</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Last Pap Smear</t>
+  </si>
+  <si>
+    <t>Last PSA</t>
+  </si>
+  <si>
+    <t>Last Prostate Exam</t>
+  </si>
+  <si>
+    <t>Last Colonoscopy</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.healthScreening.cholesterolLevel.na" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.healthScreening.mammogram.na" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.healthScreening.selfBreastexams.na" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.healthScreening.papSmear.na" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.healthScreening.psa.na" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.healthScreening.prostateExam.na" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.healthScreening.colonoscopy.na" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Prognosis</t>
+  </si>
+  <si>
+    <t>//md-radio-button[@class="md-amber margin-0 md-cs-content-theme-theme flex-gt-md-20 flex-50 md-checked" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Functional - Amputation</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.amputation"]</t>
+  </si>
+  <si>
+    <t>Functional - Legally Blind</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.legallyBlind"]</t>
+  </si>
+  <si>
+    <t>Functional - Endurance</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.endurance"]</t>
+  </si>
+  <si>
+    <t>Functional - Contracture</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.contracture"]</t>
+  </si>
+  <si>
+    <t>Functional - Hearning</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.hearing"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional - Other </t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.other"]</t>
+  </si>
+  <si>
+    <t>Functional - Paralysis</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.paralysis"]</t>
+  </si>
+  <si>
+    <t>Functional - Bowel/Bladdel Incontinence</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.bowelBladderincontinence"]</t>
+  </si>
+  <si>
+    <t>Functional - Dyspne</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.dyspnea"]</t>
+  </si>
+  <si>
+    <t>Functional - Ambulation</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.ambulation"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional - Sppech </t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.functionalLimitation.speech"]</t>
+  </si>
+  <si>
+    <t>Neurological - Oriental</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.orientedTo.value"]</t>
+  </si>
+  <si>
+    <t>Neurological - Person</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.orientedTo.person"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurological - Place </t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.orientedTo.place"]</t>
+  </si>
+  <si>
+    <t>Neurological - Time</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.orientedTo.time"]</t>
+  </si>
+  <si>
+    <t>Neurological - Situation</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.orientedTo.situation"]</t>
+  </si>
+  <si>
+    <t>Neurological - Comatose</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.comatose"]</t>
+  </si>
+  <si>
+    <t>Neurological - PERRL</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.perrl"]</t>
+  </si>
+  <si>
+    <t>Neurological - Disoriented</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.disoriented"]</t>
+  </si>
+  <si>
+    <t>Neurological - Seizures</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.seriures.value"]</t>
+  </si>
+  <si>
+    <t>Neurological - Forgetful</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.forgetful"]</t>
+  </si>
+  <si>
+    <t>Neurological - Lethargic</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.neuro.lethargic"]</t>
+  </si>
+  <si>
+    <t>M1700</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-100 md-checked" and @aria-checked="true"])[3]</t>
+  </si>
+  <si>
+    <t>M1710</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-100 md-checked" and @aria-checked="true"])[4]</t>
+  </si>
+  <si>
+    <t>M1720</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-100 md-checked" and @aria-checked="true"])[5]</t>
+  </si>
+  <si>
+    <t>m1730</t>
+  </si>
+  <si>
+    <t>(//md-radio-button[@class="md-amber md-cs-content-theme-theme flex-100 md-checked" and @aria-checked="true"])[6]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme flex-100 md-checked ng-touched" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme flex-100 md-checked ng-touched" and @aria-checked="true"])[2]</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme flex-100 md-checked ng-touched" and @aria-checked="true"])[3]</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme flex-100 md-checked ng-touched" and @aria-checked="true"])[4]</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme flex-100 md-checked ng-touched" and @aria-checked="true"])[5]</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme flex-100 md-checked ng-touched" and @aria-checked="true"])[6]</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme flex-100 md-checked ng-touched" and @aria-checked="true"])[7]</t>
+  </si>
+  <si>
+    <t>M1740 - 1</t>
+  </si>
+  <si>
+    <t>M1740 - 2</t>
+  </si>
+  <si>
+    <t>M1740 - 3</t>
+  </si>
+  <si>
+    <t>M1740 - 4</t>
+  </si>
+  <si>
+    <t>M1740 - 5</t>
+  </si>
+  <si>
+    <t>M1740 - 6</t>
+  </si>
+  <si>
+    <t>M1740 - 7</t>
+  </si>
+  <si>
+    <t>M1745</t>
+  </si>
+  <si>
+    <t>(//md-radio-group[@ng-model="vm.charts.m1745.value"]/md-radio-button[@aria-checked="true"])[1]</t>
+  </si>
+  <si>
+    <t>M1750</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.m1750.value"]/md-radio-button[@aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Cardiac - Chest Pain</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@class="margin-0 md-amber ng-valid md-cs-content-theme-theme ng-touched ng-dirty ng-valid-parse md-checked" and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>Location - Right</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme md-checked flex-gt-md-25 flex-50 ng-touched"and @aria-checked="true"]</t>
+  </si>
+  <si>
+    <t>L - Center</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme md-checked flex-gt-md-25 flex-50 ng-touched" and @aria-checked="true"])[2]</t>
+  </si>
+  <si>
+    <t>L - Left</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme md-checked flex-gt-md-25 flex-50 ng-touched" and @aria-checked="true"])[3]</t>
+  </si>
+  <si>
+    <t>L - Radianting</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme md-checked flex-gt-md-25 flex-50 ng-touched" and @aria-checked="true"])[4]</t>
+  </si>
+  <si>
+    <t>D - Jaw</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme md-checked flex-gt-md-33 flex-50 ng-touched"]</t>
+  </si>
+  <si>
+    <t>D - Back</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme md-checked flex-gt-md-33 flex-50 ng-touched" and @aria-checked="true"])[2]</t>
+  </si>
+  <si>
+    <t>D - Shoulder</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-untouched ng-valid md-cs-content-theme-theme md-checked flex-gt-md-33 flex-50" and @aria-checked="true"])[1]</t>
+  </si>
+  <si>
+    <t>D - Right Arm</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme md-checked flex-gt-md-33 flex-50 ng-touched" and @aria-checked="true"])[3]</t>
+  </si>
+  <si>
+    <t>D - Neck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D - Left Arm </t>
+  </si>
+  <si>
+    <t>HS - Murmur</t>
+  </si>
+  <si>
+    <t>(//md-checkbox[@class="margin-0 md-amber ng-pristine ng-valid md-cs-content-theme-theme flex-gt-md-25 flex-50 md-checked ng-touched" and @aria-checked="true"])[1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +1808,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -669,7 +1840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -694,6 +1865,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,18 +2163,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B286" sqref="B286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="98" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" customWidth="1"/>
@@ -1617,7 +2792,10 @@
         <v>70</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>151</v>
+        <v>192</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -1640,9 +2818,11 @@
         <v>73</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="E26" s="8">
         <v>1</v>
       </c>
@@ -1666,9 +2846,11 @@
         <v>74</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="E27" s="8">
         <v>1</v>
       </c>
@@ -1770,9 +2952,11 @@
         <v>80</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="E31" s="8">
         <v>1</v>
       </c>
@@ -1848,9 +3032,11 @@
         <v>86</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="D34" s="8">
+        <v>12312213</v>
+      </c>
       <c r="E34" s="8">
         <v>1</v>
       </c>
@@ -1886,7 +3072,9 @@
       <c r="G35" s="8">
         <v>2</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
         <v>44</v>
@@ -1938,7 +3126,9 @@
       <c r="G37" s="8">
         <v>2</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
         <v>44</v>
@@ -1978,9 +3168,11 @@
         <v>96</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="D39" s="8">
+        <v>12312123</v>
+      </c>
       <c r="E39" s="8">
         <v>1</v>
       </c>
@@ -1993,20 +3185,22 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>413</v>
+      </c>
       <c r="E40" s="8">
         <v>1</v>
       </c>
@@ -2030,9 +3224,11 @@
         <v>100</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="E41" s="8">
         <v>1</v>
       </c>
@@ -2058,7 +3254,9 @@
       <c r="C42" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="8">
+        <v>9755633660</v>
+      </c>
       <c r="E42" s="8">
         <v>1</v>
       </c>
@@ -2084,7 +3282,9 @@
       <c r="C43" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="E43" s="8">
         <v>1</v>
       </c>
@@ -2110,7 +3310,9 @@
       <c r="C44" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="8">
+        <v>95032</v>
+      </c>
       <c r="E44" s="8">
         <v>1</v>
       </c>
@@ -2136,7 +3338,9 @@
       <c r="C45" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="8">
+        <v>16</v>
+      </c>
       <c r="E45" s="8">
         <v>1</v>
       </c>
@@ -2755,7 +3959,7 @@
         <v>156</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>151</v>
@@ -2781,7 +3985,7 @@
         <v>157</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>151</v>
@@ -2807,7 +4011,7 @@
         <v>158</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>151</v>
@@ -2833,7 +4037,7 @@
         <v>159</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>151</v>
@@ -2859,7 +4063,7 @@
         <v>160</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>151</v>
@@ -2885,7 +4089,7 @@
         <v>161</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>151</v>
@@ -2911,7 +4115,7 @@
         <v>162</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>151</v>
@@ -2937,7 +4141,7 @@
         <v>163</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>151</v>
@@ -2963,7 +4167,7 @@
         <v>164</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>151</v>
@@ -2989,7 +4193,7 @@
         <v>165</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>151</v>
@@ -3015,7 +4219,7 @@
         <v>166</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>151</v>
@@ -3041,7 +4245,7 @@
         <v>167</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>151</v>
@@ -3067,7 +4271,7 @@
         <v>168</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>151</v>
@@ -3093,7 +4297,7 @@
         <v>169</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>151</v>
@@ -3119,7 +4323,7 @@
         <v>170</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>151</v>
@@ -3145,7 +4349,7 @@
         <v>171</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>151</v>
@@ -3171,7 +4375,7 @@
         <v>172</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>151</v>
@@ -3197,7 +4401,7 @@
         <v>173</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>151</v>
@@ -3223,7 +4427,7 @@
         <v>174</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>151</v>
@@ -3247,7 +4451,7 @@
         <v>175</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>151</v>
@@ -3268,10 +4472,10 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>151</v>
@@ -3295,7 +4499,7 @@
         <v>166</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>151</v>
@@ -3316,10 +4520,10 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>151</v>
@@ -3338,8 +4542,4079 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="8"/>
+    <row r="92" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A92" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8">
+        <v>1</v>
+      </c>
+      <c r="F92" s="8">
+        <v>0</v>
+      </c>
+      <c r="G92" s="8">
+        <v>2</v>
+      </c>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A93" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8">
+        <v>1</v>
+      </c>
+      <c r="F93" s="8">
+        <v>0</v>
+      </c>
+      <c r="G93" s="8">
+        <v>2</v>
+      </c>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="39.75" customHeight="1">
+      <c r="A94" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8">
+        <v>1</v>
+      </c>
+      <c r="F94" s="8">
+        <v>0</v>
+      </c>
+      <c r="G94" s="8">
+        <v>2</v>
+      </c>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A95" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8">
+        <v>1</v>
+      </c>
+      <c r="F95" s="8">
+        <v>0</v>
+      </c>
+      <c r="G95" s="8">
+        <v>2</v>
+      </c>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8">
+        <v>1</v>
+      </c>
+      <c r="F96" s="8">
+        <v>0</v>
+      </c>
+      <c r="G96" s="8">
+        <v>2</v>
+      </c>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B97" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8">
+        <v>1</v>
+      </c>
+      <c r="F97" s="8">
+        <v>0</v>
+      </c>
+      <c r="G97" s="8">
+        <v>2</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8">
+        <v>1</v>
+      </c>
+      <c r="F98" s="8">
+        <v>0</v>
+      </c>
+      <c r="G98" s="8">
+        <v>2</v>
+      </c>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A99" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8">
+        <v>1</v>
+      </c>
+      <c r="F99" s="8">
+        <v>0</v>
+      </c>
+      <c r="G99" s="8">
+        <v>2</v>
+      </c>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8">
+        <v>1</v>
+      </c>
+      <c r="F100" s="8">
+        <v>0</v>
+      </c>
+      <c r="G100" s="8">
+        <v>2</v>
+      </c>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" t="s">
+        <v>226</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8">
+        <v>1</v>
+      </c>
+      <c r="F101" s="8">
+        <v>0</v>
+      </c>
+      <c r="G101" s="8">
+        <v>2</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B102" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8">
+        <v>1</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0</v>
+      </c>
+      <c r="G102" s="8">
+        <v>2</v>
+      </c>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8">
+        <v>1</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0</v>
+      </c>
+      <c r="G103" s="8">
+        <v>2</v>
+      </c>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" t="s">
+        <v>233</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8">
+        <v>1</v>
+      </c>
+      <c r="F104" s="8">
+        <v>0</v>
+      </c>
+      <c r="G104" s="8">
+        <v>2</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8">
+        <v>1</v>
+      </c>
+      <c r="F105" s="8">
+        <v>0</v>
+      </c>
+      <c r="G105" s="8">
+        <v>2</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8">
+        <v>1</v>
+      </c>
+      <c r="F106" s="8">
+        <v>0</v>
+      </c>
+      <c r="G106" s="8">
+        <v>2</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B107" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" t="s">
+        <v>240</v>
+      </c>
+      <c r="E107" s="8">
+        <v>1</v>
+      </c>
+      <c r="F107" s="8">
+        <v>0</v>
+      </c>
+      <c r="G107" s="8">
+        <v>2</v>
+      </c>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B108" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="8">
+        <v>1</v>
+      </c>
+      <c r="F108" s="8">
+        <v>0</v>
+      </c>
+      <c r="G108" s="8">
+        <v>2</v>
+      </c>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="8">
+        <v>1</v>
+      </c>
+      <c r="F109" s="8">
+        <v>0</v>
+      </c>
+      <c r="G109" s="8">
+        <v>2</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B110" t="s">
+        <v>246</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="8">
+        <v>1</v>
+      </c>
+      <c r="F110" s="8">
+        <v>0</v>
+      </c>
+      <c r="G110" s="8">
+        <v>2</v>
+      </c>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B111" t="s">
+        <v>248</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E111" s="8">
+        <v>1</v>
+      </c>
+      <c r="F111" s="8">
+        <v>0</v>
+      </c>
+      <c r="G111" s="8">
+        <v>2</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B112" t="s">
+        <v>250</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E112" s="8">
+        <v>1</v>
+      </c>
+      <c r="F112" s="8">
+        <v>0</v>
+      </c>
+      <c r="G112" s="8">
+        <v>2</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B113" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E113" s="8">
+        <v>1</v>
+      </c>
+      <c r="F113" s="8">
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
+        <v>2</v>
+      </c>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B114" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E114" s="8">
+        <v>1</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0</v>
+      </c>
+      <c r="G114" s="8">
+        <v>2</v>
+      </c>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" t="s">
+        <v>257</v>
+      </c>
+      <c r="E115" s="8">
+        <v>1</v>
+      </c>
+      <c r="F115" s="8">
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
+        <v>2</v>
+      </c>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" s="8">
+        <v>1</v>
+      </c>
+      <c r="F116" s="8">
+        <v>0</v>
+      </c>
+      <c r="G116" s="8">
+        <v>2</v>
+      </c>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B117" t="s">
+        <v>261</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" s="8">
+        <v>1</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0</v>
+      </c>
+      <c r="G117" s="8">
+        <v>2</v>
+      </c>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E118" s="8">
+        <v>1</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0</v>
+      </c>
+      <c r="G118" s="8">
+        <v>2</v>
+      </c>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" s="8">
+        <v>1</v>
+      </c>
+      <c r="F119" s="8">
+        <v>0</v>
+      </c>
+      <c r="G119" s="8">
+        <v>2</v>
+      </c>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E120" s="8">
+        <v>1</v>
+      </c>
+      <c r="F120" s="8">
+        <v>0</v>
+      </c>
+      <c r="G120" s="8">
+        <v>2</v>
+      </c>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" s="8">
+        <v>1</v>
+      </c>
+      <c r="F121" s="8">
+        <v>0</v>
+      </c>
+      <c r="G121" s="8">
+        <v>2</v>
+      </c>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E122" s="8">
+        <v>1</v>
+      </c>
+      <c r="F122" s="8">
+        <v>0</v>
+      </c>
+      <c r="G122" s="8">
+        <v>2</v>
+      </c>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B123" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E123" s="8">
+        <v>1</v>
+      </c>
+      <c r="F123" s="8">
+        <v>0</v>
+      </c>
+      <c r="G123" s="8">
+        <v>2</v>
+      </c>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B124" t="s">
+        <v>275</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E124" s="8">
+        <v>1</v>
+      </c>
+      <c r="F124" s="8">
+        <v>0</v>
+      </c>
+      <c r="G124" s="8">
+        <v>2</v>
+      </c>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" s="8">
+        <v>1</v>
+      </c>
+      <c r="F125" s="8">
+        <v>0</v>
+      </c>
+      <c r="G125" s="8">
+        <v>2</v>
+      </c>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B126" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E126" s="8">
+        <v>1</v>
+      </c>
+      <c r="F126" s="8">
+        <v>0</v>
+      </c>
+      <c r="G126" s="8">
+        <v>2</v>
+      </c>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B127" t="s">
+        <v>281</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" s="8">
+        <v>1</v>
+      </c>
+      <c r="F127" s="8">
+        <v>0</v>
+      </c>
+      <c r="G127" s="8">
+        <v>2</v>
+      </c>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B128" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" s="8">
+        <v>1</v>
+      </c>
+      <c r="F128" s="8">
+        <v>0</v>
+      </c>
+      <c r="G128" s="8">
+        <v>2</v>
+      </c>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B129" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" s="8">
+        <v>1</v>
+      </c>
+      <c r="F129" s="8">
+        <v>0</v>
+      </c>
+      <c r="G129" s="8">
+        <v>2</v>
+      </c>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B130" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" s="8">
+        <v>1</v>
+      </c>
+      <c r="F130" s="8">
+        <v>0</v>
+      </c>
+      <c r="G130" s="8">
+        <v>2</v>
+      </c>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B131" t="s">
+        <v>289</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" s="8">
+        <v>1</v>
+      </c>
+      <c r="F131" s="8">
+        <v>0</v>
+      </c>
+      <c r="G131" s="8">
+        <v>2</v>
+      </c>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" s="8">
+        <v>1</v>
+      </c>
+      <c r="F132" s="8">
+        <v>0</v>
+      </c>
+      <c r="G132" s="8">
+        <v>2</v>
+      </c>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B133" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E133" s="8">
+        <v>1</v>
+      </c>
+      <c r="F133" s="8">
+        <v>0</v>
+      </c>
+      <c r="G133" s="8">
+        <v>2</v>
+      </c>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="27" customHeight="1">
+      <c r="A134" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" s="8">
+        <v>1</v>
+      </c>
+      <c r="F134" s="8">
+        <v>0</v>
+      </c>
+      <c r="G134" s="8">
+        <v>2</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B135" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135" s="8">
+        <v>1</v>
+      </c>
+      <c r="F135" s="8">
+        <v>0</v>
+      </c>
+      <c r="G135" s="8">
+        <v>2</v>
+      </c>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B136" t="s">
+        <v>299</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E136" s="8">
+        <v>1</v>
+      </c>
+      <c r="F136" s="8">
+        <v>0</v>
+      </c>
+      <c r="G136" s="8">
+        <v>2</v>
+      </c>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B137" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" s="8">
+        <v>1</v>
+      </c>
+      <c r="F137" s="8">
+        <v>0</v>
+      </c>
+      <c r="G137" s="8">
+        <v>2</v>
+      </c>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B138" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" s="8">
+        <v>1</v>
+      </c>
+      <c r="F138" s="8">
+        <v>0</v>
+      </c>
+      <c r="G138" s="8">
+        <v>2</v>
+      </c>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B139" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" s="8">
+        <v>1</v>
+      </c>
+      <c r="F139" s="8">
+        <v>0</v>
+      </c>
+      <c r="G139" s="8">
+        <v>2</v>
+      </c>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B140" t="s">
+        <v>307</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" s="8">
+        <v>1</v>
+      </c>
+      <c r="F140" s="8">
+        <v>0</v>
+      </c>
+      <c r="G140" s="8">
+        <v>2</v>
+      </c>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B141" t="s">
+        <v>309</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" s="8">
+        <v>1</v>
+      </c>
+      <c r="F141" s="8">
+        <v>0</v>
+      </c>
+      <c r="G141" s="8">
+        <v>2</v>
+      </c>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B142" t="s">
+        <v>310</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E142" s="8">
+        <v>1</v>
+      </c>
+      <c r="F142" s="8">
+        <v>0</v>
+      </c>
+      <c r="G142" s="8">
+        <v>2</v>
+      </c>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B143" t="s">
+        <v>312</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E143" s="8">
+        <v>1</v>
+      </c>
+      <c r="F143" s="8">
+        <v>0</v>
+      </c>
+      <c r="G143" s="8">
+        <v>2</v>
+      </c>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B144" t="s">
+        <v>314</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E144" s="8">
+        <v>1</v>
+      </c>
+      <c r="F144" s="8">
+        <v>0</v>
+      </c>
+      <c r="G144" s="8">
+        <v>2</v>
+      </c>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B145" t="s">
+        <v>316</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E145" s="8">
+        <v>1</v>
+      </c>
+      <c r="F145" s="8">
+        <v>0</v>
+      </c>
+      <c r="G145" s="8">
+        <v>2</v>
+      </c>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B146" t="s">
+        <v>317</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E146" s="8">
+        <v>1</v>
+      </c>
+      <c r="F146" s="8">
+        <v>0</v>
+      </c>
+      <c r="G146" s="8">
+        <v>2</v>
+      </c>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B147" t="s">
+        <v>320</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E147" s="8">
+        <v>1</v>
+      </c>
+      <c r="F147" s="8">
+        <v>0</v>
+      </c>
+      <c r="G147" s="8">
+        <v>2</v>
+      </c>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B148" t="s">
+        <v>322</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E148" s="8">
+        <v>1</v>
+      </c>
+      <c r="F148" s="8">
+        <v>0</v>
+      </c>
+      <c r="G148" s="8">
+        <v>2</v>
+      </c>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B149" t="s">
+        <v>324</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E149" s="8">
+        <v>1</v>
+      </c>
+      <c r="F149" s="8">
+        <v>0</v>
+      </c>
+      <c r="G149" s="8">
+        <v>2</v>
+      </c>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B150" t="s">
+        <v>326</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E150" s="8">
+        <v>1</v>
+      </c>
+      <c r="F150" s="8">
+        <v>0</v>
+      </c>
+      <c r="G150" s="8">
+        <v>2</v>
+      </c>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B151" t="s">
+        <v>328</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E151" s="8">
+        <v>1</v>
+      </c>
+      <c r="F151" s="8">
+        <v>0</v>
+      </c>
+      <c r="G151" s="8">
+        <v>2</v>
+      </c>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B152" t="s">
+        <v>330</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E152" s="8">
+        <v>1</v>
+      </c>
+      <c r="F152" s="8">
+        <v>0</v>
+      </c>
+      <c r="G152" s="8">
+        <v>2</v>
+      </c>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B153" t="s">
+        <v>332</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E153" s="8">
+        <v>1</v>
+      </c>
+      <c r="F153" s="8">
+        <v>0</v>
+      </c>
+      <c r="G153" s="8">
+        <v>2</v>
+      </c>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B154" t="s">
+        <v>334</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E154" s="8">
+        <v>1</v>
+      </c>
+      <c r="F154" s="8">
+        <v>0</v>
+      </c>
+      <c r="G154" s="8">
+        <v>2</v>
+      </c>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B155" t="s">
+        <v>336</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E155" s="8">
+        <v>1</v>
+      </c>
+      <c r="F155" s="8">
+        <v>0</v>
+      </c>
+      <c r="G155" s="8">
+        <v>2</v>
+      </c>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B156" t="s">
+        <v>338</v>
+      </c>
+      <c r="E156" s="8">
+        <v>1</v>
+      </c>
+      <c r="F156" s="8">
+        <v>0</v>
+      </c>
+      <c r="G156" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B157" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E157" s="8">
+        <v>1</v>
+      </c>
+      <c r="F157" s="8">
+        <v>0</v>
+      </c>
+      <c r="G157" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B158" t="s">
+        <v>340</v>
+      </c>
+      <c r="E158" s="8">
+        <v>1</v>
+      </c>
+      <c r="F158" s="8">
+        <v>0</v>
+      </c>
+      <c r="G158" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E159" s="8">
+        <v>1</v>
+      </c>
+      <c r="F159" s="8">
+        <v>0</v>
+      </c>
+      <c r="G159" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B160" t="s">
+        <v>345</v>
+      </c>
+      <c r="E160" s="8">
+        <v>1</v>
+      </c>
+      <c r="F160" s="8">
+        <v>0</v>
+      </c>
+      <c r="G160" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B161" t="s">
+        <v>346</v>
+      </c>
+      <c r="E161" s="8">
+        <v>1</v>
+      </c>
+      <c r="F161" s="8">
+        <v>0</v>
+      </c>
+      <c r="G161" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B162" t="s">
+        <v>349</v>
+      </c>
+      <c r="E162" s="8">
+        <v>1</v>
+      </c>
+      <c r="F162" s="8">
+        <v>0</v>
+      </c>
+      <c r="G162" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B163" t="s">
+        <v>339</v>
+      </c>
+      <c r="E163" s="8">
+        <v>1</v>
+      </c>
+      <c r="F163" s="8">
+        <v>0</v>
+      </c>
+      <c r="G163" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B164" t="s">
+        <v>351</v>
+      </c>
+      <c r="E164" s="8">
+        <v>1</v>
+      </c>
+      <c r="F164" s="8">
+        <v>0</v>
+      </c>
+      <c r="G164" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B165" t="s">
+        <v>352</v>
+      </c>
+      <c r="E165" s="8">
+        <v>1</v>
+      </c>
+      <c r="F165" s="8">
+        <v>0</v>
+      </c>
+      <c r="G165" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B166" t="s">
+        <v>354</v>
+      </c>
+      <c r="E166" s="8">
+        <v>1</v>
+      </c>
+      <c r="F166" s="8">
+        <v>0</v>
+      </c>
+      <c r="G166" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B167" t="s">
+        <v>356</v>
+      </c>
+      <c r="E167" s="8">
+        <v>1</v>
+      </c>
+      <c r="F167" s="8">
+        <v>0</v>
+      </c>
+      <c r="G167" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B168" t="s">
+        <v>358</v>
+      </c>
+      <c r="E168" s="8">
+        <v>1</v>
+      </c>
+      <c r="F168" s="8">
+        <v>0</v>
+      </c>
+      <c r="G168" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B169" t="s">
+        <v>360</v>
+      </c>
+      <c r="E169" s="8">
+        <v>1</v>
+      </c>
+      <c r="F169" s="8">
+        <v>0</v>
+      </c>
+      <c r="G169" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B170" t="s">
+        <v>362</v>
+      </c>
+      <c r="E170" s="8">
+        <v>1</v>
+      </c>
+      <c r="F170" s="8">
+        <v>0</v>
+      </c>
+      <c r="G170" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="E171" s="8">
+        <v>1</v>
+      </c>
+      <c r="F171" s="8">
+        <v>0</v>
+      </c>
+      <c r="G171" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B172" t="s">
+        <v>364</v>
+      </c>
+      <c r="E172" s="8">
+        <v>1</v>
+      </c>
+      <c r="F172" s="8">
+        <v>0</v>
+      </c>
+      <c r="G172" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B173" t="s">
+        <v>366</v>
+      </c>
+      <c r="E173" s="8">
+        <v>1</v>
+      </c>
+      <c r="F173" s="8">
+        <v>0</v>
+      </c>
+      <c r="G173" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B174" t="s">
+        <v>368</v>
+      </c>
+      <c r="E174" s="8">
+        <v>1</v>
+      </c>
+      <c r="F174" s="8">
+        <v>0</v>
+      </c>
+      <c r="G174" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B175" t="s">
+        <v>370</v>
+      </c>
+      <c r="E175" s="8">
+        <v>1</v>
+      </c>
+      <c r="F175" s="8">
+        <v>0</v>
+      </c>
+      <c r="G175" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B176" t="s">
+        <v>372</v>
+      </c>
+      <c r="E176" s="8">
+        <v>1</v>
+      </c>
+      <c r="F176" s="8">
+        <v>0</v>
+      </c>
+      <c r="G176" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B177" t="s">
+        <v>374</v>
+      </c>
+      <c r="E177" s="8">
+        <v>1</v>
+      </c>
+      <c r="F177" s="8">
+        <v>0</v>
+      </c>
+      <c r="G177" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B178" t="s">
+        <v>376</v>
+      </c>
+      <c r="E178" s="8">
+        <v>1</v>
+      </c>
+      <c r="F178" s="8">
+        <v>0</v>
+      </c>
+      <c r="G178" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B179" t="s">
+        <v>374</v>
+      </c>
+      <c r="E179" s="8">
+        <v>1</v>
+      </c>
+      <c r="F179" s="8">
+        <v>0</v>
+      </c>
+      <c r="G179" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B180" t="s">
+        <v>379</v>
+      </c>
+      <c r="E180" s="8">
+        <v>1</v>
+      </c>
+      <c r="F180" s="8">
+        <v>0</v>
+      </c>
+      <c r="G180" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B181" t="s">
+        <v>381</v>
+      </c>
+      <c r="E181" s="8">
+        <v>1</v>
+      </c>
+      <c r="F181" s="8">
+        <v>0</v>
+      </c>
+      <c r="G181" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B182" t="s">
+        <v>385</v>
+      </c>
+      <c r="E182" s="8">
+        <v>1</v>
+      </c>
+      <c r="F182" s="8">
+        <v>0</v>
+      </c>
+      <c r="G182" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B183" t="s">
+        <v>384</v>
+      </c>
+      <c r="E183" s="8">
+        <v>1</v>
+      </c>
+      <c r="F183" s="8">
+        <v>0</v>
+      </c>
+      <c r="G183" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B184" t="s">
+        <v>387</v>
+      </c>
+      <c r="E184" s="8">
+        <v>1</v>
+      </c>
+      <c r="F184" s="8">
+        <v>0</v>
+      </c>
+      <c r="G184" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E185" s="8">
+        <v>1</v>
+      </c>
+      <c r="F185" s="8">
+        <v>0</v>
+      </c>
+      <c r="G185" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B186" t="s">
+        <v>391</v>
+      </c>
+      <c r="E186" s="8">
+        <v>1</v>
+      </c>
+      <c r="F186" s="8">
+        <v>0</v>
+      </c>
+      <c r="G186" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B187" t="s">
+        <v>392</v>
+      </c>
+      <c r="E187" s="8">
+        <v>1</v>
+      </c>
+      <c r="F187" s="8">
+        <v>0</v>
+      </c>
+      <c r="G187" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B188" t="s">
+        <v>397</v>
+      </c>
+      <c r="E188" s="8">
+        <v>1</v>
+      </c>
+      <c r="F188" s="8">
+        <v>0</v>
+      </c>
+      <c r="G188" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B189" t="s">
+        <v>395</v>
+      </c>
+      <c r="E189" s="8">
+        <v>1</v>
+      </c>
+      <c r="F189" s="8">
+        <v>0</v>
+      </c>
+      <c r="G189" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B190" t="s">
+        <v>399</v>
+      </c>
+      <c r="E190" s="8">
+        <v>1</v>
+      </c>
+      <c r="F190" s="8">
+        <v>0</v>
+      </c>
+      <c r="G190" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="8" customFormat="1">
+      <c r="A191" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E191" s="8">
+        <v>1</v>
+      </c>
+      <c r="F191" s="8">
+        <v>0</v>
+      </c>
+      <c r="G191" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B192" t="s">
+        <v>401</v>
+      </c>
+      <c r="E192" s="8">
+        <v>1</v>
+      </c>
+      <c r="F192" s="8">
+        <v>0</v>
+      </c>
+      <c r="G192" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E193" s="8">
+        <v>1</v>
+      </c>
+      <c r="F193" s="8">
+        <v>0</v>
+      </c>
+      <c r="G193" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B194" t="s">
+        <v>402</v>
+      </c>
+      <c r="E194" s="8">
+        <v>1</v>
+      </c>
+      <c r="F194" s="8">
+        <v>0</v>
+      </c>
+      <c r="G194" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B195" t="s">
+        <v>405</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E195" s="8">
+        <v>1</v>
+      </c>
+      <c r="F195" s="8">
+        <v>0</v>
+      </c>
+      <c r="G195" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B196" t="s">
+        <v>408</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D196">
+        <v>15</v>
+      </c>
+      <c r="E196" s="8">
+        <v>1</v>
+      </c>
+      <c r="F196" s="8">
+        <v>0</v>
+      </c>
+      <c r="G196" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B197" t="s">
+        <v>410</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D197">
+        <v>20</v>
+      </c>
+      <c r="E197" s="8">
+        <v>1</v>
+      </c>
+      <c r="F197" s="8">
+        <v>0</v>
+      </c>
+      <c r="G197" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B198" t="s">
+        <v>417</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E198" s="8">
+        <v>1</v>
+      </c>
+      <c r="F198" s="8">
+        <v>0</v>
+      </c>
+      <c r="G198" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B199" t="s">
+        <v>412</v>
+      </c>
+      <c r="E199" s="8">
+        <v>1</v>
+      </c>
+      <c r="F199" s="8">
+        <v>0</v>
+      </c>
+      <c r="G199" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B200" t="s">
+        <v>416</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E200" s="8">
+        <v>1</v>
+      </c>
+      <c r="F200" s="8">
+        <v>0</v>
+      </c>
+      <c r="G200" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A201" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E201" s="8">
+        <v>1</v>
+      </c>
+      <c r="F201" s="8">
+        <v>0</v>
+      </c>
+      <c r="G201" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A202" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E202" s="8">
+        <v>1</v>
+      </c>
+      <c r="F202" s="8">
+        <v>0</v>
+      </c>
+      <c r="G202" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B203" t="s">
+        <v>421</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8">
+        <v>1</v>
+      </c>
+      <c r="F203" s="8">
+        <v>0</v>
+      </c>
+      <c r="G203" s="8">
+        <v>2</v>
+      </c>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
+      <c r="J203" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="B204" t="s">
+        <v>423</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D204" s="8"/>
+      <c r="E204" s="8">
+        <v>1</v>
+      </c>
+      <c r="F204" s="8">
+        <v>0</v>
+      </c>
+      <c r="G204" s="8">
+        <v>2</v>
+      </c>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B205" t="s">
+        <v>425</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D205" s="8"/>
+      <c r="E205" s="8">
+        <v>1</v>
+      </c>
+      <c r="F205" s="8">
+        <v>0</v>
+      </c>
+      <c r="G205" s="8">
+        <v>2</v>
+      </c>
+      <c r="H205" s="8"/>
+      <c r="I205" s="8"/>
+      <c r="J205" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B206" t="s">
+        <v>427</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D206" s="8"/>
+      <c r="E206" s="8">
+        <v>1</v>
+      </c>
+      <c r="F206" s="8">
+        <v>0</v>
+      </c>
+      <c r="G206" s="8">
+        <v>2</v>
+      </c>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
+      <c r="J206" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B207" t="s">
+        <v>429</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8">
+        <v>1</v>
+      </c>
+      <c r="F207" s="8">
+        <v>0</v>
+      </c>
+      <c r="G207" s="8">
+        <v>2</v>
+      </c>
+      <c r="H207" s="8"/>
+      <c r="I207" s="8"/>
+      <c r="J207" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B208" t="s">
+        <v>431</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D208" s="8"/>
+      <c r="E208" s="8">
+        <v>1</v>
+      </c>
+      <c r="F208" s="8">
+        <v>0</v>
+      </c>
+      <c r="G208" s="8">
+        <v>2</v>
+      </c>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B209" t="s">
+        <v>433</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D209" s="8"/>
+      <c r="E209" s="8">
+        <v>1</v>
+      </c>
+      <c r="F209" s="8">
+        <v>0</v>
+      </c>
+      <c r="G209" s="8">
+        <v>2</v>
+      </c>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+      <c r="J209" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="B210" t="s">
+        <v>436</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D210" s="8"/>
+      <c r="E210" s="8">
+        <v>1</v>
+      </c>
+      <c r="F210" s="8">
+        <v>0</v>
+      </c>
+      <c r="G210" s="8">
+        <v>2</v>
+      </c>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
+      <c r="J210" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B211" t="s">
+        <v>437</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8">
+        <v>1</v>
+      </c>
+      <c r="F211" s="8">
+        <v>0</v>
+      </c>
+      <c r="G211" s="8">
+        <v>2</v>
+      </c>
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
+      <c r="J211" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B212" t="s">
+        <v>442</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D212" s="8"/>
+      <c r="E212" s="8">
+        <v>1</v>
+      </c>
+      <c r="F212" s="8">
+        <v>0</v>
+      </c>
+      <c r="G212" s="8">
+        <v>2</v>
+      </c>
+      <c r="H212" s="8"/>
+      <c r="I212" s="8"/>
+      <c r="J212" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B213" t="s">
+        <v>443</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8">
+        <v>1</v>
+      </c>
+      <c r="F213" s="8">
+        <v>0</v>
+      </c>
+      <c r="G213" s="8">
+        <v>2</v>
+      </c>
+      <c r="H213" s="8"/>
+      <c r="I213" s="8"/>
+      <c r="J213" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B214" t="s">
+        <v>444</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8">
+        <v>1</v>
+      </c>
+      <c r="F214" s="8">
+        <v>0</v>
+      </c>
+      <c r="G214" s="8">
+        <v>2</v>
+      </c>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
+      <c r="J214" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D215" s="8"/>
+      <c r="E215" s="8">
+        <v>1</v>
+      </c>
+      <c r="F215" s="8">
+        <v>0</v>
+      </c>
+      <c r="G215" s="8">
+        <v>2</v>
+      </c>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+      <c r="J215" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B216" t="s">
+        <v>447</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E216" s="8">
+        <v>1</v>
+      </c>
+      <c r="F216" s="8">
+        <v>0</v>
+      </c>
+      <c r="G216" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A217" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E217" s="8">
+        <v>1</v>
+      </c>
+      <c r="F217" s="8">
+        <v>0</v>
+      </c>
+      <c r="G217" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B218" t="s">
+        <v>451</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E218" s="8">
+        <v>1</v>
+      </c>
+      <c r="F218" s="8">
+        <v>0</v>
+      </c>
+      <c r="G218" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B219" t="s">
+        <v>453</v>
+      </c>
+      <c r="E219" s="8">
+        <v>1</v>
+      </c>
+      <c r="F219" s="8">
+        <v>0</v>
+      </c>
+      <c r="G219" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B220" t="s">
+        <v>455</v>
+      </c>
+      <c r="E220" s="8">
+        <v>1</v>
+      </c>
+      <c r="F220" s="8">
+        <v>0</v>
+      </c>
+      <c r="G220" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B221" t="s">
+        <v>457</v>
+      </c>
+      <c r="E221" s="8">
+        <v>1</v>
+      </c>
+      <c r="F221" s="8">
+        <v>0</v>
+      </c>
+      <c r="G221" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B222" t="s">
+        <v>459</v>
+      </c>
+      <c r="E222" s="8">
+        <v>1</v>
+      </c>
+      <c r="F222" s="8">
+        <v>0</v>
+      </c>
+      <c r="G222" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B223" t="s">
+        <v>461</v>
+      </c>
+      <c r="E223" s="8">
+        <v>1</v>
+      </c>
+      <c r="F223" s="8">
+        <v>0</v>
+      </c>
+      <c r="G223" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B224" t="s">
+        <v>462</v>
+      </c>
+      <c r="E224" s="8">
+        <v>1</v>
+      </c>
+      <c r="F224" s="8">
+        <v>0</v>
+      </c>
+      <c r="G224" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B225" t="s">
+        <v>464</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E225" s="8">
+        <v>1</v>
+      </c>
+      <c r="F225" s="8">
+        <v>0</v>
+      </c>
+      <c r="G225" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A226" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E226" s="8">
+        <v>1</v>
+      </c>
+      <c r="F226" s="8">
+        <v>0</v>
+      </c>
+      <c r="G226" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A227" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E227" s="8">
+        <v>1</v>
+      </c>
+      <c r="F227" s="8">
+        <v>0</v>
+      </c>
+      <c r="G227" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A228" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E228" s="8">
+        <v>1</v>
+      </c>
+      <c r="F228" s="8">
+        <v>0</v>
+      </c>
+      <c r="G228" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A229" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="E229" s="8">
+        <v>1</v>
+      </c>
+      <c r="F229" s="8">
+        <v>0</v>
+      </c>
+      <c r="G229" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A230" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E230" s="8">
+        <v>1</v>
+      </c>
+      <c r="F230" s="8">
+        <v>0</v>
+      </c>
+      <c r="G230" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="30">
+      <c r="A231" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E231" s="8">
+        <v>1</v>
+      </c>
+      <c r="F231" s="8">
+        <v>0</v>
+      </c>
+      <c r="G231" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B232" t="s">
+        <v>477</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E232" s="8">
+        <v>1</v>
+      </c>
+      <c r="F232" s="8">
+        <v>0</v>
+      </c>
+      <c r="G232" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B233" t="s">
+        <v>486</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E233" s="8">
+        <v>1</v>
+      </c>
+      <c r="F233" s="8">
+        <v>0</v>
+      </c>
+      <c r="G233" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E234" s="8">
+        <v>1</v>
+      </c>
+      <c r="F234" s="8">
+        <v>0</v>
+      </c>
+      <c r="G234" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E235" s="8">
+        <v>1</v>
+      </c>
+      <c r="F235" s="8">
+        <v>0</v>
+      </c>
+      <c r="G235" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E236" s="8">
+        <v>1</v>
+      </c>
+      <c r="F236" s="8">
+        <v>0</v>
+      </c>
+      <c r="G236" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E237" s="8">
+        <v>1</v>
+      </c>
+      <c r="F237" s="8">
+        <v>0</v>
+      </c>
+      <c r="G237" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E238" s="8">
+        <v>1</v>
+      </c>
+      <c r="F238" s="8">
+        <v>0</v>
+      </c>
+      <c r="G238" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E239" s="8">
+        <v>1</v>
+      </c>
+      <c r="F239" s="8">
+        <v>0</v>
+      </c>
+      <c r="G239" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A240" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E240" s="8">
+        <v>1</v>
+      </c>
+      <c r="F240" s="8">
+        <v>0</v>
+      </c>
+      <c r="G240" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E241" s="8">
+        <v>1</v>
+      </c>
+      <c r="F241" s="8">
+        <v>0</v>
+      </c>
+      <c r="G241" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B242" t="s">
+        <v>498</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E242" s="8">
+        <v>1</v>
+      </c>
+      <c r="F242" s="8">
+        <v>0</v>
+      </c>
+      <c r="G242" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B243" t="s">
+        <v>500</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E243" s="8">
+        <v>1</v>
+      </c>
+      <c r="F243" s="8">
+        <v>0</v>
+      </c>
+      <c r="G243" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B244" t="s">
+        <v>502</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E244" s="8">
+        <v>1</v>
+      </c>
+      <c r="F244" s="8">
+        <v>0</v>
+      </c>
+      <c r="G244" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E245" s="8">
+        <v>1</v>
+      </c>
+      <c r="F245" s="8">
+        <v>0</v>
+      </c>
+      <c r="G245" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E246" s="8">
+        <v>1</v>
+      </c>
+      <c r="F246" s="8">
+        <v>0</v>
+      </c>
+      <c r="G246" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B247" t="s">
+        <v>508</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E247" s="8">
+        <v>1</v>
+      </c>
+      <c r="F247" s="8">
+        <v>0</v>
+      </c>
+      <c r="G247" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B248" t="s">
+        <v>510</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E248" s="8">
+        <v>1</v>
+      </c>
+      <c r="F248" s="8">
+        <v>0</v>
+      </c>
+      <c r="G248" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B249" t="s">
+        <v>512</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E249" s="8">
+        <v>1</v>
+      </c>
+      <c r="F249" s="8">
+        <v>0</v>
+      </c>
+      <c r="G249" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B250" t="s">
+        <v>514</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E250" s="8">
+        <v>1</v>
+      </c>
+      <c r="F250" s="8">
+        <v>0</v>
+      </c>
+      <c r="G250" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B251" t="s">
+        <v>516</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E251" s="8">
+        <v>1</v>
+      </c>
+      <c r="F251" s="8">
+        <v>0</v>
+      </c>
+      <c r="G251" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B252" t="s">
+        <v>518</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D252" s="8"/>
+      <c r="E252" s="8">
+        <v>1</v>
+      </c>
+      <c r="F252" s="8">
+        <v>0</v>
+      </c>
+      <c r="G252" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B253" t="s">
+        <v>520</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D253" s="8"/>
+      <c r="E253" s="8">
+        <v>1</v>
+      </c>
+      <c r="F253" s="8">
+        <v>0</v>
+      </c>
+      <c r="G253" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D254" s="8"/>
+      <c r="E254" s="8">
+        <v>1</v>
+      </c>
+      <c r="F254" s="8">
+        <v>0</v>
+      </c>
+      <c r="G254" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B255" t="s">
+        <v>524</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D255" s="8"/>
+      <c r="E255" s="8">
+        <v>1</v>
+      </c>
+      <c r="F255" s="8">
+        <v>0</v>
+      </c>
+      <c r="G255" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B256" t="s">
+        <v>526</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D256" s="8"/>
+      <c r="E256" s="8">
+        <v>1</v>
+      </c>
+      <c r="F256" s="8">
+        <v>0</v>
+      </c>
+      <c r="G256" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B257" t="s">
+        <v>528</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D257" s="8"/>
+      <c r="E257" s="8">
+        <v>1</v>
+      </c>
+      <c r="F257" s="8">
+        <v>0</v>
+      </c>
+      <c r="G257" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B258" t="s">
+        <v>530</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D258" s="8"/>
+      <c r="E258" s="8">
+        <v>1</v>
+      </c>
+      <c r="F258" s="8">
+        <v>0</v>
+      </c>
+      <c r="G258" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B259" t="s">
+        <v>532</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8">
+        <v>1</v>
+      </c>
+      <c r="F259" s="8">
+        <v>0</v>
+      </c>
+      <c r="G259" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B260" t="s">
+        <v>534</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D260" s="8"/>
+      <c r="E260" s="8">
+        <v>1</v>
+      </c>
+      <c r="F260" s="8">
+        <v>0</v>
+      </c>
+      <c r="G260" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B261" t="s">
+        <v>536</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D261" s="8"/>
+      <c r="E261" s="8">
+        <v>1</v>
+      </c>
+      <c r="F261" s="8">
+        <v>0</v>
+      </c>
+      <c r="G261" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B262" t="s">
+        <v>538</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D262" s="8"/>
+      <c r="E262" s="8">
+        <v>1</v>
+      </c>
+      <c r="F262" s="8">
+        <v>0</v>
+      </c>
+      <c r="G262" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A263" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D263" s="8"/>
+      <c r="E263" s="8">
+        <v>1</v>
+      </c>
+      <c r="F263" s="8">
+        <v>0</v>
+      </c>
+      <c r="G263" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A264" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D264" s="8"/>
+      <c r="E264" s="8">
+        <v>1</v>
+      </c>
+      <c r="F264" s="8">
+        <v>0</v>
+      </c>
+      <c r="G264" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="36" customHeight="1">
+      <c r="A265" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D265" s="8"/>
+      <c r="E265" s="8">
+        <v>1</v>
+      </c>
+      <c r="F265" s="8">
+        <v>0</v>
+      </c>
+      <c r="G265" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A266" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D266" s="8"/>
+      <c r="E266" s="8">
+        <v>1</v>
+      </c>
+      <c r="F266" s="8">
+        <v>0</v>
+      </c>
+      <c r="G266" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A267" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8">
+        <v>1</v>
+      </c>
+      <c r="F267" s="8">
+        <v>0</v>
+      </c>
+      <c r="G267" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="36" customHeight="1">
+      <c r="A268" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D268" s="8"/>
+      <c r="E268" s="8">
+        <v>1</v>
+      </c>
+      <c r="F268" s="8">
+        <v>0</v>
+      </c>
+      <c r="G268" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A269" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D269" s="8"/>
+      <c r="E269" s="8">
+        <v>1</v>
+      </c>
+      <c r="F269" s="8">
+        <v>0</v>
+      </c>
+      <c r="G269" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="30">
+      <c r="A270" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D270" s="8"/>
+      <c r="E270" s="8">
+        <v>1</v>
+      </c>
+      <c r="F270" s="8">
+        <v>0</v>
+      </c>
+      <c r="G270" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="30">
+      <c r="A271" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D271" s="8"/>
+      <c r="E271" s="8">
+        <v>1</v>
+      </c>
+      <c r="F271" s="8">
+        <v>0</v>
+      </c>
+      <c r="G271" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="30">
+      <c r="A272" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D272" s="8"/>
+      <c r="E272" s="8">
+        <v>1</v>
+      </c>
+      <c r="F272" s="8">
+        <v>0</v>
+      </c>
+      <c r="G272" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="30">
+      <c r="A273" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D273" s="8"/>
+      <c r="E273" s="8">
+        <v>1</v>
+      </c>
+      <c r="F273" s="8">
+        <v>0</v>
+      </c>
+      <c r="G273" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B274" t="s">
+        <v>562</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D274" s="8"/>
+      <c r="E274" s="8">
+        <v>1</v>
+      </c>
+      <c r="F274" s="8">
+        <v>0</v>
+      </c>
+      <c r="G274" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B275" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="33" customHeight="1">
+      <c r="A276" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="39" customHeight="1">
+      <c r="A277" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="30" customHeight="1">
+      <c r="A278" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A279" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A280" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B280" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="30">
+      <c r="A281" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A282" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A283" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A284" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="39" customHeight="1">
+      <c r="A285" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B286" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A287" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>586</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
